--- a/DMSNewVSale_2025-12-30_18-38.xlsx
+++ b/DMSNewVSale_2025-12-30_18-38.xlsx
@@ -561,9 +561,6 @@
   </si>
   <si>
     <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.0000</t>
   </si>
   <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
@@ -3089,7 +3086,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3103,10 +3100,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3115,7 +3112,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3148,7 +3145,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3181,7 +3178,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3202,7 +3199,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3214,7 +3211,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3231,11 +3228,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>39</v>
@@ -3247,7 +3244,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3264,11 +3261,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3297,11 +3294,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3313,14 +3310,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3330,11 +3327,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>15</v>
@@ -3346,14 +3343,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3363,14 +3360,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>14</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3379,7 +3376,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3412,7 +3409,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3429,11 +3426,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3445,14 +3442,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3466,7 +3463,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3478,14 +3475,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3511,7 +3508,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3528,11 +3525,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>15</v>
@@ -3544,7 +3541,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3561,14 +3558,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>221</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3577,14 +3574,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3610,14 +3607,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3643,7 +3640,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3672,7 +3669,7 @@
     </row>
     <row r="78" ht="25.5" customHeight="1">
       <c r="N78" s="13">
-        <v>5273.4200000000001</v>
+        <v>5311.4200000000001</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c t="s" r="A79" s="14">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3688,13 +3685,13 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c t="s" r="G79" s="15">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
       <c t="s" r="K79" s="17">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
